--- a/MS_Project_Data-2.xlsx
+++ b/MS_Project_Data-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatimakoli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatimakoli/Desktop/MississippiSite/MSWomenCount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C19843-131F-3445-A54C-EBD9C8BEED05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7BD54-247D-B64A-956A-50B1B19CBA3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1120" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{3260C183-FE2D-4EE6-9809-F77AE4A8E783}"/>
+    <workbookView xWindow="12880" yWindow="1120" windowWidth="15340" windowHeight="12580" activeTab="2" xr2:uid="{3260C183-FE2D-4EE6-9809-F77AE4A8E783}"/>
   </bookViews>
   <sheets>
     <sheet name="NewVariables" sheetId="3" r:id="rId1"/>
@@ -9549,8 +9549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBAEB62-7EEB-1840-9550-47D88D7E1177}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15706,13 +15706,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D20C1-F7A6-4AB8-B465-784FDFCDD554}">
   <dimension ref="A1:B1032216"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
